--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -1,52 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_dev_repos/wc_sim/tests/multialgorithm/fixtures/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Taxon" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Taxon" sheetId="2" r:id="rId2"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
+    <sheet name="Species types" sheetId="5" r:id="rId5"/>
+    <sheet name="Concentrations" sheetId="6" r:id="rId6"/>
+    <sheet name="Observables" sheetId="7" r:id="rId7"/>
+    <sheet name="Functions" sheetId="8" r:id="rId8"/>
+    <sheet name="Reactions" sheetId="9" r:id="rId9"/>
+    <sheet name="Rate laws" sheetId="10" r:id="rId10"/>
+    <sheet name="Biomass components" sheetId="11" r:id="rId11"/>
+    <sheet name="Biomass reactions" sheetId="12" r:id="rId12"/>
+    <sheet name="Parameters" sheetId="13" r:id="rId13"/>
+    <sheet name="Stop conditions" sheetId="14" r:id="rId14"/>
+    <sheet name="References" sheetId="15" r:id="rId15"/>
+    <sheet name="Database references" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Compartments!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12">Parameters!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8">Reactions!$A$1:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14">References!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!$A$1:$D$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$F$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="12">Parameters!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">Reactions!$A$1:$H$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">References!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="2">Submodels!$A$1:$D$3</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -55,377 +59,376 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="120">
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASP_test_2016_ss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steady state ASP test model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/org/repo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wc_lang version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASP_test_2016_ss_taxon</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>ASP_test_2016_ss</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Steady state ASP test model</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://github.com/org/repo</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>wc_lang version</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>ASP_test_2016_ss_taxon</t>
   </si>
   <si>
     <t xml:space="preserve">Test model for access species populations for </t>
   </si>
   <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank not used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume s.t. vol * Avogadro's num ~= an integer x En</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average concentration, cytosol (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average concentration, extracellular (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_1 + specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate law, Vmax and Km ignored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[e]: specie_4 + specie_3 ==&gt; specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_3 ==&gt; specie_1 + specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[e]: specie_5 ==&gt; specie_4 + specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c] ==&gt; specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[e] ==&gt; specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e] ==&gt; specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c] ==&gt; specie_3[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>Rank not used</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Biomass reaction</t>
+  </si>
+  <si>
+    <t>Objective function</t>
+  </si>
+  <si>
+    <t>submodel_1</t>
+  </si>
+  <si>
+    <t>ssa</t>
+  </si>
+  <si>
+    <t>submodel_2</t>
+  </si>
+  <si>
+    <t>Initial volume</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Volume s.t. vol * Avogadro's num ~= an integer x En</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>specie_1</t>
+  </si>
+  <si>
+    <t>specie_name_1</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>specie_2</t>
+  </si>
+  <si>
+    <t>specie_name_2</t>
+  </si>
+  <si>
+    <t>specie_3</t>
+  </si>
+  <si>
+    <t>specie_name_3</t>
+  </si>
+  <si>
+    <t>specie_4</t>
+  </si>
+  <si>
+    <t>specie_name_4</t>
+  </si>
+  <si>
+    <t>specie_5</t>
+  </si>
+  <si>
+    <t>specie_name_5</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>specie_1[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Average concentration, cytosol (M)</t>
+  </si>
+  <si>
+    <t>specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>specie_2[e]</t>
+  </si>
+  <si>
+    <t>Average concentration, extracellular (M)</t>
+  </si>
+  <si>
+    <t>specie_3[e]</t>
+  </si>
+  <si>
+    <t>specie_4[e]</t>
+  </si>
+  <si>
+    <t>specie_5[e]</t>
+  </si>
+  <si>
+    <t>Observables</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Min flux</t>
+  </si>
+  <si>
+    <t>Max flux</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>[c]: specie_1 + specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t>Rate law, Vmax and Km ignored</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[e]: specie_4 + specie_3 ==&gt; specie_5</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: specie_3 ==&gt; specie_1 + specie_2</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[e]: specie_5 ==&gt; specie_4 + specie_3</t>
+  </si>
+  <si>
+    <t>reaction_5</t>
+  </si>
+  <si>
+    <t>reaction_name_5</t>
+  </si>
+  <si>
+    <t>specie_2[c] ==&gt; specie_2[e]</t>
+  </si>
+  <si>
+    <t>reaction_6</t>
+  </si>
+  <si>
+    <t>reaction_name_6</t>
+  </si>
+  <si>
+    <t>specie_3[e] ==&gt; specie_3[c]</t>
+  </si>
+  <si>
+    <t>reaction_7</t>
+  </si>
+  <si>
+    <t>reaction_name_7</t>
+  </si>
+  <si>
+    <t>specie_2[e] ==&gt; specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_8</t>
+  </si>
+  <si>
+    <t>reaction_name_8</t>
+  </si>
+  <si>
+    <t>specie_3[c] ==&gt; specie_3[e]</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>K cat</t>
+  </si>
+  <si>
+    <t>K m</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Submodels</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Edition</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00000000E+00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000E+00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -434,22 +437,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -464,7 +452,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -479,10 +467,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -508,113 +503,68 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -673,143 +623,374 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://github.com/org/repo"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -833,10 +1014,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -844,22 +1024,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -883,10 +1055,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -894,22 +1065,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -927,10 +1090,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -938,27 +1100,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="5" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="8.78542510121457"/>
+    <col min="1" max="8" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -986,55 +1143,40 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1042,30 +1184,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
+    <col min="1" max="18" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,34 +1257,20 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -1183,10 +1303,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1194,71 +1313,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1266,29 +1378,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="8.78542510121457"/>
+    <col min="1" max="9" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1317,28 +1422,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1347,43 +1452,31 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D3"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="5" width="8.78542510121457"/>
+    <col min="1" max="3" width="8.83203125" style="5"/>
+    <col min="4" max="5" width="20.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -1397,88 +1490,76 @@
         <v>29</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="n">
-        <v>1.66058E-010</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="8">
+        <v>1.66058E-10</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="n">
-        <v>1.66058E-010</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="8">
+        <v>1.66058E-10</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:F3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1020" min="11" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="9" width="8.78542510121457"/>
+    <col min="1" max="1020" width="8.83203125" style="5"/>
+    <col min="1021" max="1024" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -1514,85 +1595,85 @@
       <c r="AMI1" s="9"/>
       <c r="AMJ1" s="9"/>
     </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="5">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -1601,34 +1682,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I6"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="9" width="9.10526315789474"/>
+    <col min="1" max="5" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
@@ -1645,12 +1717,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="9" t="n">
-        <v>1E-012</v>
+      <c r="B2" s="9">
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>55</v>
@@ -1659,12 +1731,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="9" t="n">
-        <v>2E-012</v>
+      <c r="B3" s="9">
+        <v>2E-12</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>55</v>
@@ -1673,12 +1745,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="9" t="n">
-        <v>3E-012</v>
+      <c r="B4" s="9">
+        <v>3.0000000000000001E-12</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>55</v>
@@ -1687,12 +1759,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>4E-012</v>
+      <c r="B5" s="9">
+        <v>3.9999999999999999E-12</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>55</v>
@@ -1701,12 +1773,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="9" t="n">
-        <v>5E-012</v>
+      <c r="B6" s="9">
+        <v>4.9999999999999997E-12</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>55</v>
@@ -1715,12 +1787,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="9" t="n">
-        <v>6E-012</v>
+      <c r="B7" s="9">
+        <v>6.0000000000000003E-12</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>55</v>
@@ -1729,12 +1801,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="9" t="n">
-        <v>7E-012</v>
+      <c r="B8" s="9">
+        <v>7.0000000000000001E-12</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>55</v>
@@ -1744,10 +1816,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1755,46 +1826,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1802,43 +1864,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1846,32 +1899,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="5" width="9"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1020" min="10" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="9" width="8.78542510121457"/>
+    <col min="1" max="1020" width="8.83203125" style="5"/>
+    <col min="1021" max="1024" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -1904,7 +1948,7 @@
       <c r="AMI1" s="9"/>
       <c r="AMJ1" s="9"/>
     </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>71</v>
       </c>
@@ -1917,14 +1961,14 @@
       <c r="D2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
       <c r="H2" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>75</v>
       </c>
@@ -1937,11 +1981,11 @@
       <c r="D3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -1954,11 +1998,11 @@
       <c r="D4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
@@ -1971,11 +2015,11 @@
       <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>84</v>
       </c>
@@ -1992,7 +2036,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
@@ -2006,7 +2050,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>90</v>
       </c>
@@ -2020,7 +2064,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>93</v>
       </c>
@@ -2036,13 +2080,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H6"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>